--- a/Files/Data_sheet.xlsx
+++ b/Files/Data_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_projects\com.automationpractice.com\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F783AABA-9F2A-4E29-8FF1-072830790EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63C66F-2916-4ABB-86F3-13D893FD389F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2A986843-042A-4C24-A321-9DD1C85199DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A986843-042A-4C24-A321-9DD1C85199DB}"/>
   </bookViews>
   <sheets>
     <sheet name="email" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>tom@ticket.com</t>
-  </si>
-  <si>
-    <t>cape@jab.com</t>
-  </si>
-  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Gaurav</t>
-  </si>
-  <si>
     <t>Bhardwaj</t>
   </si>
   <si>
@@ -82,6 +73,12 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>rob@gun.com</t>
   </si>
 </sst>
 </file>
@@ -446,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4A9B8E-60C8-48F3-B70B-B8DD3B14D946}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,18 +461,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5BCE7358-5ED2-41FB-A682-CF3ECDCBD162}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7C00DC91-0F26-4568-9520-6F53B9791B51}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{16BC341E-80C6-4676-8406-C02B727C67D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -485,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0BFAB5-9CCA-4236-872B-BE168556931A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,48 +492,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <v>15611</v>
